--- a/data/gliders/Database.xlsx
+++ b/data/gliders/Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge69dox\Schlautmann\00_private\01_Flying\WGC_Tabor\Quellen\tracking\data\gliders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C64A4A-63C6-4973-BCE5-4BCF72468ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B046B1D-4A7E-454F-A9B6-FEF97B895DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9AF3C144-75A6-4A65-8D42-AC6B359BC94F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AF3C144-75A6-4A65-8D42-AC6B359BC94F}"/>
   </bookViews>
   <sheets>
     <sheet name="WGC2025" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="781">
   <si>
     <t>ZJ</t>
   </si>
@@ -2501,21 +2501,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2523,16 +2522,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2573,9 +2569,56 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color rgb="FF444444"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <name val="Inherit"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF444444"/>
+        <name val="Inherit"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF444444"/>
+        <name val="Inherit"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -3026,56 +3069,9 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color rgb="FF444444"/>
-        <name val="Inherit"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF444444"/>
-        <name val="Inherit"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF444444"/>
-        <name val="Inherit"/>
-        <scheme val="none"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -3099,8 +3095,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}" name="Table1" displayName="Table1" ref="A1:L116" totalsRowShown="0" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}" name="Table1" displayName="Table1" ref="A1:L116" totalsRowShown="0" dataDxfId="17">
   <autoFilter ref="A1:L116" xr:uid="{712C14E4-E780-4B06-B1E9-6F28EB74545B}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="GER"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="7">
       <filters>
         <filter val="Club Class"/>
@@ -3111,20 +3112,20 @@
     <sortCondition ref="E1:E116"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{68FEEB08-3007-4B07-82F6-F38E0F007722}" name="ID" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{8B7E7F73-40B9-4E78-AA91-2DD55CF7EC9B}" name="COMP" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{0A69F7EF-64BE-4A41-9C02-F9690C61FD3E}" name="Name" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{92B95FC1-5BF0-4BAD-A1D8-5EF424D7C63D}" name="Country" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{8334259F-B63B-48C0-AAFD-F15C31D34CE2}" name="Flag" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{94FE6D85-3D2C-4F77-8894-1E258ED8CB80}" name="Club" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{214EF52E-7ABF-476A-967B-60FDC47CA4A2}" name="Glider" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{FA5EFB34-32B5-4D95-8EAA-7E553A949D28}" name="Class" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{5F0BF31E-D1B4-486A-8F8C-1109387D7A6E}" name="FlarmID" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{5F3416CE-966A-4795-9BCA-AA3BD52BEE88}" name="String" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{68FEEB08-3007-4B07-82F6-F38E0F007722}" name="ID" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{8B7E7F73-40B9-4E78-AA91-2DD55CF7EC9B}" name="COMP" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{0A69F7EF-64BE-4A41-9C02-F9690C61FD3E}" name="Name" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{92B95FC1-5BF0-4BAD-A1D8-5EF424D7C63D}" name="Country" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{8334259F-B63B-48C0-AAFD-F15C31D34CE2}" name="Flag" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{94FE6D85-3D2C-4F77-8894-1E258ED8CB80}" name="Club" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{214EF52E-7ABF-476A-967B-60FDC47CA4A2}" name="Glider" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{FA5EFB34-32B5-4D95-8EAA-7E553A949D28}" name="Class" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{5F0BF31E-D1B4-486A-8F8C-1109387D7A6E}" name="FlarmID" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{5F3416CE-966A-4795-9BCA-AA3BD52BEE88}" name="String" dataDxfId="7">
       <calculatedColumnFormula>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B2,",",E2," ",C2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{879AB136-C038-4E43-A902-D3E0CE40C33D}" name="Alternative IDs" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{0B702CF2-0F7A-438C-A56F-83AAF71D7A09}" name="Remarks" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{879AB136-C038-4E43-A902-D3E0CE40C33D}" name="Alternative IDs" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{0B702CF2-0F7A-438C-A56F-83AAF71D7A09}" name="Remarks" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3154,9 +3155,9 @@
     <tableColumn id="1" xr3:uid="{2C93214C-6D39-48BD-AAF6-A27D6B9C4E71}" name="Lookup">
       <calculatedColumnFormula>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{AD76E1F2-0E39-4F34-8F61-AA1ABA654D23}" name="Country2" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{38471712-4F89-4AC0-83D4-B7D1A0FBBD5C}" name="Short" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{6BCBB359-3254-4FF5-ADFF-8D055156F6A0}" name="Flag" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{AD76E1F2-0E39-4F34-8F61-AA1ABA654D23}" name="Country2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{38471712-4F89-4AC0-83D4-B7D1A0FBBD5C}" name="Short" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{6BCBB359-3254-4FF5-ADFF-8D055156F6A0}" name="Flag" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3481,8 +3482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E7876E-E250-4E28-BFB0-5D6337AED830}">
   <dimension ref="A1:L165"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I118" sqref="I118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3538,4776 +3539,4778 @@
         <v>601</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A2" s="5">
+    <row r="2" spans="1:12" ht="32.25" hidden="1" thickBot="1">
+      <c r="A2" s="4">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="J2" s="11" t="str">
+      <c r="J2" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B2,",",E2," ",C2)</f>
         <v>D02CE8,,6L,🇦🇷 Javier Gaude</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A3" s="5">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" hidden="1" thickBot="1">
+      <c r="A3" s="4">
         <v>15</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="J3" s="11" t="str">
+      <c r="J3" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B3,",",E3," ",C3)</f>
         <v>D00158,,IX,🇦🇷 Felipe Girado</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>597</v>
       </c>
-      <c r="J4" s="11" t="str">
+      <c r="J4" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B4,",",E4," ",C4)</f>
         <v>D02B97,,W8,🇦🇷 Dino Ghioni</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>25</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="J5" s="11" t="str">
+      <c r="J5" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B5,",",E5," ",C5)</f>
         <v>D028C8,,AU,🇦🇷 Bruno Andres Quinteros</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="J6" s="11" t="str">
+      <c r="J6" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B6,",",E6," ",C6)</f>
         <v>D02A46,,FE,🇦🇷 Damian Goldenzweig</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>646</v>
       </c>
-      <c r="J7" s="11" t="str">
+      <c r="J7" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B7,",",E7," ",C7)</f>
         <v>D02953,,EY,🇦🇷 Lucas Goldenzweig</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>13</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="J8" s="11" t="str">
+      <c r="J8" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B8,",",E8," ",C8)</f>
         <v>3E6294,,KN,🇦🇹 Friedrich Hofinger</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>37</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <v>440326</v>
       </c>
-      <c r="J9" s="11" t="str">
+      <c r="J9" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B9,",",E9," ",C9)</f>
         <v>440326,,ZL,🇦🇹 Philipp Wittwer</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="16.5" hidden="1" thickBot="1">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>3</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>620</v>
       </c>
-      <c r="J10" s="11" t="str">
+      <c r="J10" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B10,",",E10," ",C10)</f>
         <v>DF0EC9,,XK,🇦🇹 Paul Bernhard</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A11" s="5">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" hidden="1" thickBot="1">
+      <c r="A11" s="4">
         <v>26</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11" t="str">
+      <c r="I11" s="10"/>
+      <c r="J11" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B11,",",E11," ",C11)</f>
         <v>,,1A,🇦🇺 James Nugent</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A12" s="5">
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" hidden="1" thickBot="1">
+      <c r="A12" s="4">
         <v>34</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11" t="str">
+      <c r="I12" s="10"/>
+      <c r="J12" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B12,",",E12," ",C12)</f>
         <v>,,RZ,🇦🇺 Daniel Summers</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>1</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="J13" s="11" t="str">
+      <c r="J13" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B13,",",E13," ",C13)</f>
         <v>DDDE35,,SE,🇦🇺 Allan Barnes</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>38</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="J14" s="11" t="str">
+      <c r="J14" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B14,",",E14," ",C14)</f>
         <v>D0016B,,GX,🇦🇺 Adam Woolley</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="L14" s="5"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12" ht="16.5" hidden="1" thickBot="1">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="J15" s="11" t="str">
+      <c r="J15" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B15,",",E15," ",C15)</f>
         <v>45ACB8,,EK,🇦🇺 David Jansen</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" hidden="1" thickBot="1">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>26</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="J16" s="11" t="str">
+      <c r="J16" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B16,",",E16," ",C16)</f>
         <v>D021CA,,WX,🇦🇺 Matthew Scutter</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A17" s="5">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="32.25" hidden="1" thickBot="1">
+      <c r="A17" s="4">
         <v>8</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="J17" s="11" t="str">
+      <c r="J17" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B17,",",E17," ",C17)</f>
         <v>DDAECB,,B4,🇧🇪 Thomas De Bruyn</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A18" s="5">
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" ht="32.25" hidden="1" thickBot="1">
+      <c r="A18" s="4">
         <v>22</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="J18" s="11" t="str">
+      <c r="J18" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B18,",",E18," ",C18)</f>
         <v>D02A1A,,FY,🇧🇪 Alexandre Mélot</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="J19" s="11" t="str">
+      <c r="J19" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B19,",",E19," ",C19)</f>
         <v>DDEA4B,,LT,🇧🇪 Jeroen Jennen</v>
       </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>29</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="J20" s="11" t="str">
+      <c r="J20" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B20,",",E20," ",C20)</f>
         <v>DDDF5F,,5F,🇧🇪 Robin Selfslagh</v>
       </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>15</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="J21" s="11" t="str">
+      <c r="J21" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B21,",",E21," ",C21)</f>
         <v>DDEBBE,,LX,🇧🇪 Thomas Leduc</v>
       </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12" ht="16.5" hidden="1" thickBot="1">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>16</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="12" t="s">
         <v>636</v>
       </c>
-      <c r="J22" s="11" t="str">
+      <c r="J22" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B22,",",E22," ",C22)</f>
         <v>D00C86,,MMI,🇧🇪 André-Emmanuel Litt</v>
       </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12" ht="16.5" hidden="1" thickBot="1">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="10" t="s">
         <v>649</v>
       </c>
-      <c r="J23" s="11" t="str">
+      <c r="J23" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B23,",",E23," ",C23)</f>
         <v>D009BF,,VV,🇧🇷 Henrique Navarro</v>
       </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12" ht="16.5" hidden="1" thickBot="1">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>28</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="J24" s="11" t="str">
+      <c r="J24" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B24,",",E24," ",C24)</f>
         <v>D02D23,,EMI,🇧🇷 Gustavo Shigueno</v>
       </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A25" s="5">
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" hidden="1" thickBot="1">
+      <c r="A25" s="4">
         <v>13</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="J25" s="11" t="str">
+      <c r="J25" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B25,",",E25," ",C25)</f>
         <v>4B4BD2,,MN,🇨🇭 Simon Gantner</v>
       </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A26" s="5">
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" hidden="1" thickBot="1">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="J26" s="11" t="str">
+      <c r="J26" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B26,",",E26," ",C26)</f>
         <v>4B5067,,CRN,🇨🇭 Yves Müller</v>
       </c>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
     </row>
     <row r="27" spans="1:12" ht="16.5" hidden="1" thickBot="1">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>8</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="J27" s="11" t="str">
+      <c r="J27" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B27,",",E27," ",C27)</f>
         <v>4B4E94,,LR,🇨🇭 Yves Gerster</v>
       </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A28" s="5">
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" ht="16.5" hidden="1" thickBot="1">
+      <c r="A28" s="4">
         <v>19</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11" t="str">
+      <c r="I28" s="10"/>
+      <c r="J28" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B28,",",E28," ",C28)</f>
         <v>,,A3,🇨🇿 Ivan Harašta</v>
       </c>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A29" s="5">
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" ht="16.5" hidden="1" thickBot="1">
+      <c r="A29" s="4">
         <v>33</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11" t="str">
+      <c r="I29" s="10"/>
+      <c r="J29" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B29,",",E29," ",C29)</f>
         <v>,,CX,🇨🇿 Tomas Suchanek</v>
       </c>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
     </row>
     <row r="30" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>7</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="J30" s="11" t="str">
+      <c r="J30" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B30,",",E30," ",C30)</f>
         <v>D01CEF,,JB,🇨🇿 Miloslav Cink</v>
       </c>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
     </row>
     <row r="31" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>23</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11" t="str">
+      <c r="I31" s="10"/>
+      <c r="J31" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B31,",",E31," ",C31)</f>
         <v>,,EU,🇨🇿 Barbora Moravcová</v>
       </c>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>24</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="J32" s="11" t="str">
+      <c r="J32" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B32,",",E32," ",C32)</f>
         <v>D02AE6,,FX,🇨🇿 Jan Pavlík</v>
       </c>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
     </row>
     <row r="33" spans="1:12" ht="16.5" hidden="1" thickBot="1">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>21</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="J33" s="11" t="str">
+      <c r="J33" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B33,",",E33," ",C33)</f>
         <v>DDEFB9,,AX,🇨🇿 Karel Novák</v>
       </c>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:12" ht="16.5" hidden="1" thickBot="1">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>31</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11" t="str">
+      <c r="I34" s="10"/>
+      <c r="J34" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B34,",",E34," ",C34)</f>
         <v>,,ZE,🇨🇿 Pavel Trybenekr</v>
       </c>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
     </row>
     <row r="35" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>20</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I35" s="10" t="s">
+      <c r="I35" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="J35" s="11" t="str">
+      <c r="J35" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B35,",",E35," ",C35)</f>
         <v>DF2044,,🇩🇪SF,🇩🇪 Stefan Langer</v>
       </c>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
     </row>
     <row r="36" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>39</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11" t="str">
+      <c r="I36" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="J36" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B36,",",E36," ",C36)</f>
-        <v>,,🇩🇪SN,🇩🇪 Uwe Wahlig</v>
-      </c>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
+        <v>DF14A3,,🇩🇪SN,🇩🇪 Uwe Wahlig</v>
+      </c>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
     </row>
     <row r="37" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <v>18</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="I37" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="J37" s="11" t="str">
+      <c r="J37" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B37,",",E37," ",C37)</f>
         <v>D004BF,,🇩🇪JK,🇩🇪 Jan Kretzschmar</v>
       </c>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
     </row>
     <row r="38" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A38" s="5">
+      <c r="A38" s="4">
         <v>19</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="J38" s="11" t="str">
+      <c r="J38" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B38,",",E38," ",C38)</f>
         <v>DDFA01,,🇩🇪GP,🇩🇪 Philipp Lauer</v>
       </c>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
     </row>
     <row r="39" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A39" s="5">
+      <c r="A39" s="4">
         <v>21</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="I39" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="J39" s="11" t="str">
+      <c r="J39" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B39,",",E39," ",C39)</f>
         <v>DD8750,,🇩🇪AR,🇩🇪 Max Maslak</v>
       </c>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
     </row>
     <row r="40" spans="1:12" ht="16.5" hidden="1" thickBot="1">
-      <c r="A40" s="5">
+      <c r="A40" s="4">
         <v>11</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11" t="str">
+      <c r="I40" s="10"/>
+      <c r="J40" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B40,",",E40," ",C40)</f>
         <v>,,🇩🇪SG,🇩🇪 Steffen Göttler</v>
       </c>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
     </row>
     <row r="41" spans="1:12" ht="16.5" hidden="1" thickBot="1">
-      <c r="A41" s="5">
+      <c r="A41" s="4">
         <v>25</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I41" s="11" t="s">
+      <c r="I41" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="J41" s="11" t="str">
+      <c r="J41" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B41,",",E41," ",C41)</f>
         <v>D0103C,,🇩🇪L7,🇩🇪 Steffen Schwarzer</v>
       </c>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-    </row>
-    <row r="42" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A42" s="5">
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="1:12" ht="16.5" hidden="1" thickBot="1">
+      <c r="A42" s="4">
         <v>3</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11" t="str">
+      <c r="I42" s="10"/>
+      <c r="J42" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B42,",",E42," ",C42)</f>
         <v>,,YC,🇩🇰 Filip Bojanowski</v>
       </c>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-    </row>
-    <row r="43" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A43" s="5">
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="1:12" ht="32.25" hidden="1" thickBot="1">
+      <c r="A43" s="4">
         <v>24</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11" t="str">
+      <c r="I43" s="10"/>
+      <c r="J43" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B43,",",E43," ",C43)</f>
         <v>,,W,🇩🇰 Michael Mix</v>
       </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
     </row>
     <row r="44" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A44" s="5">
+      <c r="A44" s="4">
         <v>9</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H44" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I44" s="10" t="s">
+      <c r="I44" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="J44" s="11" t="str">
+      <c r="J44" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B44,",",E44," ",C44)</f>
         <v>D025E0,,EC,🇩🇰 Uffe Edslev</v>
       </c>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
     </row>
     <row r="45" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A45" s="5">
+      <c r="A45" s="4">
         <v>10</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I45" s="10" t="s">
+      <c r="I45" s="9" t="s">
         <v>600</v>
       </c>
-      <c r="J45" s="11" t="str">
+      <c r="J45" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B45,",",E45," ",C45)</f>
         <v>D02C3E,,CE,🇩🇰 Lasse Edslev</v>
       </c>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5" t="s">
+      <c r="K45" s="4"/>
+      <c r="L45" s="4" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="16.5" hidden="1" thickBot="1">
-      <c r="A46" s="5">
+      <c r="A46" s="4">
         <v>5</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="4">
         <v>14</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I46" s="11" t="s">
+      <c r="I46" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="J46" s="11" t="str">
+      <c r="J46" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B46,",",E46," ",C46)</f>
         <v>D009CF,,14,🇩🇰 Henrik Breidahl</v>
       </c>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
     </row>
     <row r="47" spans="1:12" ht="16.5" hidden="1" thickBot="1">
-      <c r="A47" s="5">
+      <c r="A47" s="4">
         <v>6</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I47" s="10" t="s">
+      <c r="I47" s="9" t="s">
         <v>653</v>
       </c>
-      <c r="J47" s="11" t="str">
+      <c r="J47" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B47,",",E47," ",C47)</f>
         <v>45A308,,RJ,🇩🇰 Jonathan Bülow-Olsen</v>
       </c>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-    </row>
-    <row r="48" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A48" s="5">
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+    </row>
+    <row r="48" spans="1:12" ht="16.5" hidden="1" thickBot="1">
+      <c r="A48" s="4">
         <v>27</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="4">
         <v>44</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I48" s="10" t="s">
+      <c r="I48" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="J48" s="11" t="str">
+      <c r="J48" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B48,",",E48," ",C48)</f>
         <v>DF1882,,44,🇪🇸 Jaume Prats</v>
       </c>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-    </row>
-    <row r="49" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A49" s="5">
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+    </row>
+    <row r="49" spans="1:12" ht="16.5" hidden="1" thickBot="1">
+      <c r="A49" s="4">
         <v>36</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I49" s="13" t="s">
+      <c r="I49" s="12" t="s">
         <v>654</v>
       </c>
-      <c r="J49" s="11" t="str">
+      <c r="J49" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B49,",",E49," ",C49)</f>
         <v>DDA659,,KT,🇫🇮 Kim Toppari</v>
       </c>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-    </row>
-    <row r="50" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A50" s="5">
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+    </row>
+    <row r="50" spans="1:12" ht="16.5" hidden="1" thickBot="1">
+      <c r="A50" s="4">
         <v>41</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11" t="str">
+      <c r="I50" s="10"/>
+      <c r="J50" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B50,",",E50," ",C50)</f>
         <v>,,GE,🇫🇮 Mikko Ylihärsilä</v>
       </c>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
     </row>
     <row r="51" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A51" s="5">
+      <c r="A51" s="4">
         <v>17</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I51" s="10" t="s">
+      <c r="I51" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="J51" s="11" t="str">
+      <c r="J51" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B51,",",E51," ",C51)</f>
         <v>D00CB7,,JS,🇫🇮 Antti Koskiniemi</v>
       </c>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
     </row>
     <row r="52" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A52" s="5">
+      <c r="A52" s="4">
         <v>26</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H52" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I52" s="10" t="s">
+      <c r="I52" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="J52" s="11" t="str">
+      <c r="J52" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B52,",",E52," ",C52)</f>
         <v>D00413,,AA,🇫🇮 Kristian Roine</v>
       </c>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
     </row>
     <row r="53" spans="1:12" ht="16.5" hidden="1" thickBot="1">
-      <c r="A53" s="5">
+      <c r="A53" s="4">
         <v>24</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I53" s="10" t="s">
+      <c r="I53" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="J53" s="11" t="str">
+      <c r="J53" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B53,",",E53," ",C53)</f>
         <v>D01387,,3J,🇫🇮 Sami Rissanen</v>
       </c>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
     </row>
     <row r="54" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A54" s="5">
+      <c r="A54" s="4">
         <v>30</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H54" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I54" s="10" t="s">
+      <c r="I54" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="J54" s="11" t="str">
+      <c r="J54" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B54,",",E54," ",C54)</f>
         <v>D01CE6,,3F,🇫🇮 Tapio Tourula</v>
       </c>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-    </row>
-    <row r="55" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A55" s="5">
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+    </row>
+    <row r="55" spans="1:12" ht="16.5" hidden="1" thickBot="1">
+      <c r="A55" s="4">
         <v>6</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="H55" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="I55" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="J55" s="11" t="str">
+      <c r="J55" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B55,",",E55," ",C55)</f>
         <v>D012D5,,HG,🇫🇷 Hugo Corbillé</v>
       </c>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-    </row>
-    <row r="56" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A56" s="5">
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+    </row>
+    <row r="56" spans="1:12" ht="16.5" hidden="1" thickBot="1">
+      <c r="A56" s="4">
         <v>9</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H56" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I56" s="13" t="s">
+      <c r="I56" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="J56" s="11" t="str">
+      <c r="J56" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B56,",",E56," ",C56)</f>
         <v>D02720,,AG,🇫🇷 Alexandre Fierain</v>
       </c>
-      <c r="K56" s="5"/>
-      <c r="L56" s="14" t="s">
+      <c r="K56" s="4"/>
+      <c r="L56" s="10" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A57" s="5">
+    <row r="57" spans="1:12" ht="32.25" hidden="1" thickBot="1">
+      <c r="A57" s="4">
         <v>28</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="H57" s="5" t="s">
+      <c r="H57" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I57" s="10" t="s">
+      <c r="I57" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="J57" s="11" t="str">
+      <c r="J57" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B57,",",E57," ",C57)</f>
         <v>D02B30,,XI,🇫🇷 Louise Rodriguez</v>
       </c>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
     </row>
     <row r="58" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A58" s="5">
+      <c r="A58" s="4">
         <v>5</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="H58" s="5" t="s">
+      <c r="H58" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I58" s="10" t="s">
+      <c r="I58" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="J58" s="11" t="str">
+      <c r="J58" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B58,",",E58," ",C58)</f>
         <v>DDF12C,,ET,🇫🇷 Louis Bouderlique</v>
       </c>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
     </row>
     <row r="59" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A59" s="5">
+      <c r="A59" s="4">
         <v>8</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G59" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H59" s="5" t="s">
+      <c r="H59" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I59" s="10" t="s">
+      <c r="I59" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="J59" s="11" t="str">
+      <c r="J59" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B59,",",E59," ",C59)</f>
         <v>D02C3D,,JPA,🇫🇷 Julien Duboc</v>
       </c>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
     </row>
     <row r="60" spans="1:12" ht="16.5" hidden="1" thickBot="1">
-      <c r="A60" s="5">
+      <c r="A60" s="4">
         <v>2</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H60" s="5" t="s">
+      <c r="H60" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I60" s="10" t="s">
+      <c r="I60" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="J60" s="11" t="str">
+      <c r="J60" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B60,",",E60," ",C60)</f>
         <v>D00900,,LB,🇫🇷 Jean-Denis Barrois</v>
       </c>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
     </row>
     <row r="61" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A61" s="5">
+      <c r="A61" s="4">
         <v>27</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5" t="s">
+      <c r="G61" s="4"/>
+      <c r="H61" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I61" s="10" t="s">
+      <c r="I61" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="J61" s="11" t="str">
+      <c r="J61" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B61,",",E61," ",C61)</f>
         <v>DDEDF9,,KW,🇫🇷 Maximilian SEIS</v>
       </c>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-    </row>
-    <row r="62" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A62" s="5">
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+    </row>
+    <row r="62" spans="1:12" ht="32.25" hidden="1" thickBot="1">
+      <c r="A62" s="4">
         <v>10</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="4">
         <v>194</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G62" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="H62" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I62" s="10" t="s">
+      <c r="I62" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="J62" s="11" t="str">
+      <c r="J62" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B62,",",E62," ",C62)</f>
         <v>D01063,,194,🇬🇧 Timothy Fletcher</v>
       </c>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-    </row>
-    <row r="63" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A63" s="5">
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+    </row>
+    <row r="63" spans="1:12" ht="16.5" hidden="1" thickBot="1">
+      <c r="A63" s="4">
         <v>40</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G63" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="H63" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I63" s="10" t="s">
+      <c r="I63" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="J63" s="11" t="str">
+      <c r="J63" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B63,",",E63," ",C63)</f>
         <v>4055BE,,NW,🇬🇧 George White</v>
       </c>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
     </row>
     <row r="64" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A64" s="5">
+      <c r="A64" s="4">
         <v>14</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="4">
         <v>352</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G64" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H64" s="5" t="s">
+      <c r="H64" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I64" s="13" t="s">
+      <c r="I64" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="J64" s="11" t="str">
+      <c r="J64" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B64,",",E64," ",C64)</f>
         <v>7C7235,,352,🇬🇧 Jez Hood</v>
       </c>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
     </row>
     <row r="65" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A65" s="5">
+      <c r="A65" s="4">
         <v>16</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="4">
         <v>6</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="G65" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="H65" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I65" s="10" t="s">
+      <c r="I65" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="J65" s="11" t="str">
+      <c r="J65" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B65,",",E65," ",C65)</f>
         <v>D0049F,,6,🇬🇧 Howard Jones</v>
       </c>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
     </row>
     <row r="66" spans="1:12" ht="16.5" hidden="1" thickBot="1">
-      <c r="A66" s="5">
+      <c r="A66" s="4">
         <v>1</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="G66" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H66" s="5" t="s">
+      <c r="H66" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I66" s="10" t="s">
+      <c r="I66" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="J66" s="11" t="str">
+      <c r="J66" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B66,",",E66," ",C66)</f>
         <v>D009DF,,DW,🇬🇧 Tom Arscott</v>
       </c>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
     </row>
     <row r="67" spans="1:12" ht="16.5" hidden="1" thickBot="1">
-      <c r="A67" s="5">
+      <c r="A67" s="4">
         <v>34</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="G67" s="5" t="s">
+      <c r="G67" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H67" s="5" t="s">
+      <c r="H67" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I67" s="10" t="s">
+      <c r="I67" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="J67" s="11" t="str">
+      <c r="J67" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B67,",",E67," ",C67)</f>
         <v>D00CA4,,LE,🇬🇧 Leigh Wells</v>
       </c>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-    </row>
-    <row r="68" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A68" s="5">
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+    </row>
+    <row r="68" spans="1:12" ht="32.25" hidden="1" thickBot="1">
+      <c r="A68" s="4">
         <v>12</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G68" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H68" s="5" t="s">
+      <c r="H68" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I68" s="10" t="s">
+      <c r="I68" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="J68" s="11" t="str">
+      <c r="J68" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B68,",",E68," ",C68)</f>
         <v>D01854,,HR3,🇭🇷 Frane Franić</v>
       </c>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-    </row>
-    <row r="69" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A69" s="5">
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+    </row>
+    <row r="69" spans="1:12" ht="16.5" hidden="1" thickBot="1">
+      <c r="A69" s="4">
         <v>21</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F69" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="G69" s="5" t="s">
+      <c r="G69" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="H69" s="5" t="s">
+      <c r="H69" s="4" t="s">
         <v>66</v>
       </c>
       <c r="I69" t="s">
         <v>460</v>
       </c>
-      <c r="J69" s="11" t="str">
+      <c r="J69" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B69,",",E69," ",C69)</f>
         <v>D01354,,GM,🇭🇷 Grozdan Meglaj</v>
       </c>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-    </row>
-    <row r="70" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A70" s="5">
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+    </row>
+    <row r="70" spans="1:12" ht="16.5" hidden="1" thickBot="1">
+      <c r="A70" s="4">
         <v>18</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="G70" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="H70" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I70" s="10" t="s">
+      <c r="I70" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="J70" s="11" t="str">
+      <c r="J70" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B70,",",E70," ",C70)</f>
         <v>D017E9,,AD,🇭🇺 György Gulyás</v>
       </c>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-    </row>
-    <row r="71" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A71" s="5">
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+    </row>
+    <row r="71" spans="1:12" ht="16.5" hidden="1" thickBot="1">
+      <c r="A71" s="4">
         <v>35</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="G71" s="5" t="s">
+      <c r="G71" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="H71" s="5" t="s">
+      <c r="H71" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I71" s="10" t="s">
+      <c r="I71" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="J71" s="11" t="str">
+      <c r="J71" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B71,",",E71," ",C71)</f>
         <v>DF2125,,XW,🇭🇺 Ferenc TAMÁS</v>
       </c>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
     </row>
     <row r="72" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A72" s="5">
+      <c r="A72" s="4">
         <v>11</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E72" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F72" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="G72" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H72" s="5" t="s">
+      <c r="H72" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I72" s="10" t="s">
+      <c r="I72" s="9" t="s">
         <v>608</v>
       </c>
-      <c r="J72" s="11" t="str">
+      <c r="J72" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B72,",",E72," ",C72)</f>
         <v>D02B5E,,WD,🇭🇺 Balázs Endrődi</v>
       </c>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
     </row>
     <row r="73" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A73" s="5">
+      <c r="A73" s="4">
         <v>36</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E73" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F73" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="G73" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H73" s="5" t="s">
+      <c r="H73" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I73" s="10" t="s">
+      <c r="I73" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="J73" s="11" t="str">
+      <c r="J73" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B73,",",E73," ",C73)</f>
         <v>D00165,,🇭🇺,🇭🇺 Szabolcs Veigli</v>
       </c>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
     </row>
     <row r="74" spans="1:12" ht="16.5" hidden="1" thickBot="1">
-      <c r="A74" s="5">
+      <c r="A74" s="4">
         <v>20</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F74" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="G74" s="5" t="s">
+      <c r="G74" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H74" s="5" t="s">
+      <c r="H74" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11" t="str">
+      <c r="I74" s="10"/>
+      <c r="J74" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B74,",",E74," ",C74)</f>
         <v>,,HAB,🇭🇺 Kornél Negro</v>
       </c>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
     </row>
     <row r="75" spans="1:12" ht="16.5" hidden="1" thickBot="1">
-      <c r="A75" s="5">
+      <c r="A75" s="4">
         <v>32</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F75" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="G75" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H75" s="5" t="s">
+      <c r="H75" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I75" s="10" t="s">
+      <c r="I75" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="J75" s="11" t="str">
+      <c r="J75" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B75,",",E75," ",C75)</f>
         <v>D001C4,,V8,🇭🇺 Tamás Vámosi</v>
       </c>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
     </row>
     <row r="76" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A76" s="5">
+      <c r="A76" s="4">
         <v>20</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E76" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G76" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H76" s="5" t="s">
+      <c r="H76" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I76" s="13" t="s">
+      <c r="I76" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="J76" s="11" t="str">
+      <c r="J76" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B76,",",E76," ",C76)</f>
         <v>DDECE7,,TC,🇮🇱 Raphael Luski</v>
       </c>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
     </row>
     <row r="77" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A77" s="5">
+      <c r="A77" s="4">
         <v>22</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E77" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="F77" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="G77" s="5" t="s">
+      <c r="G77" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H77" s="5" t="s">
+      <c r="H77" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I77" s="10" t="s">
+      <c r="I77" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="J77" s="11" t="str">
+      <c r="J77" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B77,",",E77," ",C77)</f>
         <v>D0271F,,BE,🇮🇱 Anton Minskii</v>
       </c>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
-    </row>
-    <row r="78" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A78" s="5">
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+    </row>
+    <row r="78" spans="1:12" ht="32.25" hidden="1" thickBot="1">
+      <c r="A78" s="4">
         <v>4</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E78" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="G78" s="5" t="s">
+      <c r="G78" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H78" s="5" t="s">
+      <c r="H78" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I78" s="10" t="s">
+      <c r="I78" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="J78" s="11" t="str">
+      <c r="J78" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B78,",",E78," ",C78)</f>
         <v>D026A3,,LAB,🇮🇹 Lapo Alessandro Busi</v>
       </c>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-    </row>
-    <row r="79" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A79" s="5">
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+    </row>
+    <row r="79" spans="1:12" ht="16.5" hidden="1" thickBot="1">
+      <c r="A79" s="4">
         <v>7</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E79" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="F79" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="G79" s="5" t="s">
+      <c r="G79" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="H79" s="5" t="s">
+      <c r="H79" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I79" s="10" t="s">
+      <c r="I79" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="J79" s="11" t="str">
+      <c r="J79" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B79,",",E79," ",C79)</f>
         <v>0D8014,,B6,🇮🇹 Giacomo Dall'Olio</v>
       </c>
-      <c r="K79" s="5"/>
-      <c r="L79" s="5"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
     </row>
     <row r="80" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A80" s="5">
+      <c r="A80" s="4">
         <v>6</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E80" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="F80" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="G80" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H80" s="5" t="s">
+      <c r="H80" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I80" s="11"/>
-      <c r="J80" s="11" t="str">
+      <c r="I80" s="10"/>
+      <c r="J80" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B80,",",E80," ",C80)</f>
         <v>,,RB,🇮🇹 Riccardo Brigliadori</v>
       </c>
-      <c r="K80" s="5"/>
-      <c r="L80" s="5"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
     </row>
     <row r="81" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A81" s="5">
+      <c r="A81" s="4">
         <v>33</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E81" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F81" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="G81" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H81" s="5" t="s">
+      <c r="H81" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I81" s="10" t="s">
+      <c r="I81" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="J81" s="11" t="str">
+      <c r="J81" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B81,",",E81," ",C81)</f>
         <v>DD893C,,LR,🇮🇹 Luca Urbani</v>
       </c>
-      <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
     </row>
     <row r="82" spans="1:12" ht="16.5" hidden="1" thickBot="1">
-      <c r="A82" s="5">
+      <c r="A82" s="4">
         <v>4</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E82" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F82" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="G82" s="5" t="s">
+      <c r="G82" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H82" s="5" t="s">
+      <c r="H82" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11" t="str">
+      <c r="I82" s="10"/>
+      <c r="J82" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B82,",",E82," ",C82)</f>
         <v>,,AI,🇮🇹 Lucio Bordin</v>
       </c>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
     </row>
     <row r="83" spans="1:12" ht="16.5" hidden="1" thickBot="1">
-      <c r="A83" s="5">
+      <c r="A83" s="4">
         <v>22</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E83" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F83" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="G83" s="5" t="s">
+      <c r="G83" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="H83" s="5" t="s">
+      <c r="H83" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I83" s="10" t="s">
+      <c r="I83" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="J83" s="11" t="str">
+      <c r="J83" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B83,",",E83," ",C83)</f>
         <v>D00C04,,RY,🇮🇹 Roberto Pinato</v>
       </c>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-    </row>
-    <row r="84" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A84" s="5">
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+    </row>
+    <row r="84" spans="1:12" ht="16.5" hidden="1" thickBot="1">
+      <c r="A84" s="4">
         <v>17</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E84" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F84" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="G84" s="5" t="s">
+      <c r="G84" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="H84" s="5" t="s">
+      <c r="H84" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I84" s="10" t="s">
+      <c r="I84" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="J84" s="11" t="str">
+      <c r="J84" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B84,",",E84," ",C84)</f>
         <v>D0105A,,FL,🇱🇹 Darius Gudziunas</v>
       </c>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
-    </row>
-    <row r="85" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A85" s="5">
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+    </row>
+    <row r="85" spans="1:12" ht="16.5" hidden="1" thickBot="1">
+      <c r="A85" s="4">
         <v>23</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E85" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F85" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="G85" s="5" t="s">
+      <c r="G85" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="H85" s="5" t="s">
+      <c r="H85" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I85" s="10" t="s">
+      <c r="I85" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="J85" s="11" t="str">
+      <c r="J85" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B85,",",E85," ",C85)</f>
         <v>28455E,,AM,🇱🇹 Karolis Mikalauskas</v>
       </c>
-      <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
     </row>
     <row r="86" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A86" s="5">
+      <c r="A86" s="4">
         <v>27</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="E86" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="F86" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="G86" s="5" t="s">
+      <c r="G86" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H86" s="5" t="s">
+      <c r="H86" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I86" s="10" t="s">
+      <c r="I86" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="J86" s="11" t="str">
+      <c r="J86" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B86,",",E86," ",C86)</f>
         <v>DDEFEB,,H8,🇱🇹 Gvidas Sabeckis</v>
       </c>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
     </row>
     <row r="87" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A87" s="5">
+      <c r="A87" s="4">
         <v>34</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E87" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="F87" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="G87" s="5" t="s">
+      <c r="G87" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H87" s="5" t="s">
+      <c r="H87" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I87" s="10" t="s">
+      <c r="I87" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="J87" s="11" t="str">
+      <c r="J87" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B87,",",E87," ",C87)</f>
         <v>D01DCA,,MG,🇱🇹 Joris Vainius</v>
       </c>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
     </row>
     <row r="88" spans="1:12" ht="16.5" hidden="1" thickBot="1">
-      <c r="A88" s="5">
+      <c r="A88" s="4">
         <v>18</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E88" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="F88" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="G88" s="5" t="s">
+      <c r="G88" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H88" s="5" t="s">
+      <c r="H88" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11" t="str">
+      <c r="I88" s="10"/>
+      <c r="J88" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B88,",",E88," ",C88)</f>
         <v>,,M7,🇱🇹 Vladas Motuza</v>
       </c>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
     </row>
     <row r="89" spans="1:12" ht="16.5" hidden="1" thickBot="1">
-      <c r="A89" s="5">
+      <c r="A89" s="4">
         <v>23</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E89" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="F89" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="G89" s="5" t="s">
+      <c r="G89" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="H89" s="5" t="s">
+      <c r="H89" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I89" s="10" t="s">
+      <c r="I89" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="J89" s="11" t="str">
+      <c r="J89" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B89,",",E89," ",C89)</f>
         <v>D02B81,,BB,🇱🇹 Marius Pluščauskas</v>
       </c>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-    </row>
-    <row r="90" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A90" s="5">
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+    </row>
+    <row r="90" spans="1:12" ht="16.5" hidden="1" thickBot="1">
+      <c r="A90" s="4">
         <v>31</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E90" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="F90" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="G90" s="5" t="s">
+      <c r="G90" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="H90" s="5" t="s">
+      <c r="H90" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I90" s="10">
+      <c r="I90" s="9">
         <v>484977</v>
       </c>
-      <c r="J90" s="11" t="str">
+      <c r="J90" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B90,",",E90," ",C90)</f>
         <v>484977,,RSM,🇳🇱 Robin Smit</v>
       </c>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
-    </row>
-    <row r="91" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A91" s="5">
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+    </row>
+    <row r="91" spans="1:12" ht="32.25" hidden="1" thickBot="1">
+      <c r="A91" s="4">
         <v>38</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="E91" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="F91" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G91" s="5" t="s">
+      <c r="G91" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="H91" s="5" t="s">
+      <c r="H91" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I91" s="10">
+      <c r="I91" s="9">
         <v>485222</v>
       </c>
-      <c r="J91" s="11" t="str">
+      <c r="J91" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B91,",",E91," ",C91)</f>
         <v>485222,,KM,🇳🇱 Jeroen van Dijk</v>
       </c>
-      <c r="K91" s="5"/>
-      <c r="L91" s="5"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
     </row>
     <row r="92" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A92" s="5">
+      <c r="A92" s="4">
         <v>30</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="E92" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="F92" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="G92" s="5" t="s">
+      <c r="G92" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="H92" s="5" t="s">
+      <c r="H92" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I92" s="10" t="s">
+      <c r="I92" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="J92" s="11" t="str">
+      <c r="J92" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B92,",",E92," ",C92)</f>
         <v>D01F20,,CM,🇳🇱 Robbie Seton</v>
       </c>
-      <c r="K92" s="5"/>
-      <c r="L92" s="5"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
     </row>
     <row r="93" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A93" s="5">
+      <c r="A93" s="4">
         <v>35</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="E93" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="F93" s="5" t="s">
+      <c r="F93" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="G93" s="5" t="s">
+      <c r="G93" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="H93" s="5" t="s">
+      <c r="H93" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I93" s="10" t="s">
+      <c r="I93" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="J93" s="11" t="str">
+      <c r="J93" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B93,",",E93," ",C93)</f>
         <v>484C82,,SX,🇳🇱 Hadriaan van Nes</v>
       </c>
-      <c r="K93" s="5"/>
-      <c r="L93" s="5"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
     </row>
     <row r="94" spans="1:12" ht="16.5" hidden="1" thickBot="1">
-      <c r="A94" s="5">
+      <c r="A94" s="4">
         <v>17</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E94" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="F94" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G94" s="5" t="s">
+      <c r="G94" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="H94" s="5" t="s">
+      <c r="H94" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I94" s="10" t="s">
+      <c r="I94" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="J94" s="11" t="str">
+      <c r="J94" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B94,",",E94," ",C94)</f>
         <v>D00C86,,MM,🇳🇱 Peter Millenaar</v>
       </c>
-      <c r="K94" s="5"/>
-      <c r="L94" s="5"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
     </row>
     <row r="95" spans="1:12" ht="16.5" hidden="1" thickBot="1">
-      <c r="A95" s="5">
+      <c r="A95" s="4">
         <v>33</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E95" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G95" s="5" t="s">
+      <c r="G95" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="H95" s="5" t="s">
+      <c r="H95" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I95" s="10" t="s">
+      <c r="I95" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="J95" s="11" t="str">
+      <c r="J95" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B95,",",E95," ",C95)</f>
         <v>3E7D9A,,JV,🇳🇱 Jeroen Verkuijl</v>
       </c>
-      <c r="K95" s="5"/>
-      <c r="L95" s="5"/>
-    </row>
-    <row r="96" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A96" s="5">
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+    </row>
+    <row r="96" spans="1:12" ht="32.25" hidden="1" thickBot="1">
+      <c r="A96" s="4">
         <v>32</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="E96" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="F96" s="5" t="s">
+      <c r="F96" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G96" s="5" t="s">
+      <c r="G96" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="H96" s="5" t="s">
+      <c r="H96" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I96" s="10" t="s">
+      <c r="I96" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="J96" s="11" t="str">
+      <c r="J96" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B96,",",E96," ",C96)</f>
         <v>4404BE,,T5,🇳🇿 Michael Strathern</v>
       </c>
-      <c r="K96" s="5"/>
-      <c r="L96" s="5"/>
-    </row>
-    <row r="97" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A97" s="5">
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+    </row>
+    <row r="97" spans="1:12" ht="32.25" hidden="1" thickBot="1">
+      <c r="A97" s="4">
         <v>11</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E97" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="F97" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G97" s="5" t="s">
+      <c r="G97" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="H97" s="5" t="s">
+      <c r="H97" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I97" s="10" t="s">
+      <c r="I97" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="J97" s="11" t="str">
+      <c r="J97" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B97,",",E97," ",C97)</f>
         <v>D01CB6,,FLS,🇵🇱 Jacek Flis</v>
       </c>
-      <c r="K97" s="5"/>
-      <c r="L97" s="5"/>
-    </row>
-    <row r="98" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A98" s="5">
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+    </row>
+    <row r="98" spans="1:12" ht="16.5" hidden="1" thickBot="1">
+      <c r="A98" s="4">
         <v>42</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E98" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="F98" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="G98" s="5" t="s">
+      <c r="G98" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="H98" s="5" t="s">
+      <c r="H98" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I98" s="10" t="s">
+      <c r="I98" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="J98" s="11" t="str">
+      <c r="J98" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B98,",",E98," ",C98)</f>
         <v>D03425,,PP,🇵🇱 Mikołaj Zdun</v>
       </c>
-      <c r="K98" s="5"/>
-      <c r="L98" s="5"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
     </row>
     <row r="99" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A99" s="5">
+      <c r="A99" s="4">
         <v>2</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E99" s="5" t="s">
+      <c r="E99" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="F99" s="5" t="s">
+      <c r="F99" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="G99" s="5" t="s">
+      <c r="G99" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="H99" s="5" t="s">
+      <c r="H99" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I99" s="11"/>
-      <c r="J99" s="11" t="str">
+      <c r="I99" s="10"/>
+      <c r="J99" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B99,",",E99," ",C99)</f>
         <v>,,LOT,🇵🇱 Jakub Barszcz</v>
       </c>
-      <c r="K99" s="5"/>
-      <c r="L99" s="5"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
     </row>
     <row r="100" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A100" s="5">
+      <c r="A100" s="4">
         <v>3</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E100" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="F100" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="G100" s="5" t="s">
+      <c r="G100" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H100" s="5" t="s">
+      <c r="H100" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I100" s="10" t="s">
+      <c r="I100" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="J100" s="11" t="str">
+      <c r="J100" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B100,",",E100," ",C100)</f>
         <v>DDEE69,,I,🇵🇱 Łukasz Błaszczyk</v>
       </c>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
     </row>
     <row r="101" spans="1:12" ht="16.5" hidden="1" thickBot="1">
-      <c r="A101" s="5">
+      <c r="A101" s="4">
         <v>12</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="E101" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="F101" s="5" t="s">
+      <c r="F101" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="G101" s="5" t="s">
+      <c r="G101" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H101" s="5" t="s">
+      <c r="H101" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I101" s="11"/>
-      <c r="J101" s="11" t="str">
+      <c r="I101" s="10"/>
+      <c r="J101" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B101,",",E101," ",C101)</f>
         <v>,,RP,🇵🇱 Łukasz Grabowski</v>
       </c>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
     </row>
     <row r="102" spans="1:12" ht="16.5" hidden="1" thickBot="1">
-      <c r="A102" s="5">
+      <c r="A102" s="4">
         <v>35</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D102" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E102" s="5" t="s">
+      <c r="E102" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="F102" s="5" t="s">
+      <c r="F102" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="G102" s="5" t="s">
+      <c r="G102" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="H102" s="5" t="s">
+      <c r="H102" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I102" s="10">
+      <c r="I102" s="9">
         <v>101211</v>
       </c>
-      <c r="J102" s="11" t="str">
+      <c r="J102" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B102,",",E102," ",C102)</f>
         <v>101211,,ZJ,🇵🇱 Paweł Wojciechowski</v>
       </c>
-      <c r="K102" s="5"/>
-      <c r="L102" s="5"/>
-    </row>
-    <row r="103" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A103" s="5">
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+    </row>
+    <row r="103" spans="1:12" ht="16.5" hidden="1" thickBot="1">
+      <c r="A103" s="4">
         <v>1</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="E103" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="F103" s="5" t="s">
+      <c r="F103" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G103" s="5" t="s">
+      <c r="G103" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="H103" s="5" t="s">
+      <c r="H103" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I103" s="10" t="s">
+      <c r="I103" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="J103" s="11" t="str">
+      <c r="J103" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B103,",",E103," ",C103)</f>
         <v>DDF0BD,,Y3,🇷🇴 Tudor Bajenaru</v>
       </c>
-      <c r="K103" s="5"/>
-      <c r="L103" s="5"/>
-    </row>
-    <row r="104" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A104" s="5">
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+    </row>
+    <row r="104" spans="1:12" ht="16.5" hidden="1" thickBot="1">
+      <c r="A104" s="4">
         <v>30</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D104" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="E104" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="F104" s="5" t="s">
+      <c r="F104" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G104" s="5" t="s">
+      <c r="G104" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="H104" s="5" t="s">
+      <c r="H104" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I104" s="10" t="s">
+      <c r="I104" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="J104" s="11" t="str">
+      <c r="J104" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B104,",",E104," ",C104)</f>
         <v>D00C74,,Y2,🇷🇴 Alin Simion</v>
       </c>
-      <c r="K104" s="5" t="s">
+      <c r="K104" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="L104" s="5"/>
+      <c r="L104" s="4"/>
     </row>
     <row r="105" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A105" s="5">
+      <c r="A105" s="4">
         <v>28</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D105" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="E105" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="F105" s="5" t="s">
+      <c r="F105" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G105" s="5" t="s">
+      <c r="G105" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H105" s="5" t="s">
+      <c r="H105" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I105" s="11"/>
-      <c r="J105" s="11" t="str">
+      <c r="I105" s="10"/>
+      <c r="J105" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B105,",",E105," ",C105)</f>
         <v>,,YB,🇷🇴 Norbert Scarlat</v>
       </c>
-      <c r="K105" s="5"/>
-      <c r="L105" s="5"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
     </row>
     <row r="106" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A106" s="5">
+      <c r="A106" s="4">
         <v>32</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D106" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E106" s="5" t="s">
+      <c r="E106" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="F106" s="5" t="s">
+      <c r="F106" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G106" s="5" t="s">
+      <c r="G106" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H106" s="5" t="s">
+      <c r="H106" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I106" s="11"/>
-      <c r="J106" s="11" t="str">
+      <c r="I106" s="10"/>
+      <c r="J106" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B106,",",E106," ",C106)</f>
         <v>,,YA,🇷🇴 Ionut Tudor</v>
       </c>
-      <c r="K106" s="5"/>
-      <c r="L106" s="5"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
     </row>
     <row r="107" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A107" s="5">
+      <c r="A107" s="4">
         <v>31</v>
       </c>
-      <c r="B107" s="5">
+      <c r="B107" s="4">
         <v>1</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C107" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D107" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="E107" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="F107" s="5" t="s">
+      <c r="F107" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="G107" s="5" t="s">
+      <c r="G107" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H107" s="5" t="s">
+      <c r="H107" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I107" s="10" t="s">
+      <c r="I107" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="J107" s="11" t="str">
+      <c r="J107" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B107,",",E107," ",C107)</f>
         <v>D00EBA,,1,🇸🇪 Elias Severholt Fourati</v>
       </c>
-      <c r="K107" s="5"/>
-      <c r="L107" s="5"/>
-    </row>
-    <row r="108" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A108" s="5">
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
+    </row>
+    <row r="108" spans="1:12" ht="16.5" hidden="1" thickBot="1">
+      <c r="A108" s="4">
         <v>2</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D108" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E108" s="5" t="s">
+      <c r="E108" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="F108" s="5" t="s">
+      <c r="F108" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="G108" s="5" t="s">
+      <c r="G108" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H108" s="5" t="s">
+      <c r="H108" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I108" s="11"/>
-      <c r="J108" s="11" t="str">
+      <c r="I108" s="10"/>
+      <c r="J108" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B108,",",E108," ",C108)</f>
         <v>,,CP,🇸🇮 Viktor Becan</v>
       </c>
-      <c r="K108" s="5"/>
-      <c r="L108" s="5"/>
-    </row>
-    <row r="109" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A109" s="5">
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
+    </row>
+    <row r="109" spans="1:12" ht="16.5" hidden="1" thickBot="1">
+      <c r="A109" s="4">
         <v>37</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D109" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="E109" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="F109" s="5" t="s">
+      <c r="F109" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G109" s="5" t="s">
+      <c r="G109" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="H109" s="5" t="s">
+      <c r="H109" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I109" s="11"/>
-      <c r="J109" s="11" t="str">
+      <c r="I109" s="10"/>
+      <c r="J109" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B109,",",E109," ",C109)</f>
         <v>,,CF,🇸🇮 Mark Travner</v>
       </c>
-      <c r="K109" s="5"/>
-      <c r="L109" s="5"/>
-    </row>
-    <row r="110" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A110" s="5">
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+    </row>
+    <row r="110" spans="1:12" ht="16.5" hidden="1" thickBot="1">
+      <c r="A110" s="4">
         <v>29</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D110" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="E110" s="5" t="s">
+      <c r="E110" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="F110" s="5" t="s">
+      <c r="F110" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="G110" s="5" t="s">
+      <c r="G110" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="H110" s="5" t="s">
+      <c r="H110" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I110" s="11"/>
-      <c r="J110" s="11" t="str">
+      <c r="I110" s="10"/>
+      <c r="J110" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B110,",",E110," ",C110)</f>
         <v>,,ZS,🇸🇰 Edmund Schuller</v>
       </c>
-      <c r="K110" s="5"/>
-      <c r="L110" s="5"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
     </row>
     <row r="111" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A111" s="5">
+      <c r="A111" s="4">
         <v>4</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="E111" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="F111" s="5" t="s">
+      <c r="F111" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="G111" s="5" t="s">
+      <c r="G111" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="H111" s="5" t="s">
+      <c r="H111" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I111" s="10" t="s">
+      <c r="I111" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="J111" s="11" t="str">
+      <c r="J111" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B111,",",E111," ",C111)</f>
         <v>D003CD,,SI,🇸🇰 Tomáš Bobok</v>
       </c>
-      <c r="K111" s="5"/>
-      <c r="L111" s="5"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
     </row>
     <row r="112" spans="1:12" ht="16.5" hidden="1" thickBot="1">
-      <c r="A112" s="5">
+      <c r="A112" s="4">
         <v>7</v>
       </c>
-      <c r="B112" s="5">
+      <c r="B112" s="4">
         <v>3</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D112" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="E112" s="5" t="s">
+      <c r="E112" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="F112" s="5" t="s">
+      <c r="F112" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="G112" s="5" t="s">
+      <c r="G112" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="H112" s="5" t="s">
+      <c r="H112" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I112" s="11"/>
-      <c r="J112" s="11" t="str">
+      <c r="I112" s="10"/>
+      <c r="J112" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B112,",",E112," ",C112)</f>
         <v>,,3,🇸🇰 Vladimir Foltin</v>
       </c>
-      <c r="K112" s="5"/>
-      <c r="L112" s="5"/>
-    </row>
-    <row r="113" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A113" s="5">
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+    </row>
+    <row r="113" spans="1:12" ht="32.25" hidden="1" thickBot="1">
+      <c r="A113" s="4">
         <v>5</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D113" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E113" s="5" t="s">
+      <c r="E113" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="F113" s="5" t="s">
+      <c r="F113" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="G113" s="5" t="s">
+      <c r="G113" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="H113" s="5" t="s">
+      <c r="H113" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I113" s="10" t="s">
+      <c r="I113" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="J113" s="11" t="str">
+      <c r="J113" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B113,",",E113," ",C113)</f>
         <v>485A0B,,S5,🇺🇸 Tony Condon</v>
       </c>
-      <c r="K113" s="5"/>
-      <c r="L113" s="5"/>
-    </row>
-    <row r="114" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A114" s="5">
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+    </row>
+    <row r="114" spans="1:12" ht="16.5" hidden="1" thickBot="1">
+      <c r="A114" s="4">
         <v>16</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D114" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E114" s="5" t="s">
+      <c r="E114" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="F114" s="5" t="s">
+      <c r="F114" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="G114" s="5" t="s">
+      <c r="G114" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="H114" s="5" t="s">
+      <c r="H114" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I114" s="10" t="s">
+      <c r="I114" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="J114" s="11" t="str">
+      <c r="J114" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B114,",",E114," ",C114)</f>
         <v>DF2858,,FP,🇺🇸 Sylvia Grandstaff</v>
       </c>
-      <c r="K114" s="5"/>
-      <c r="L114" s="5"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
     </row>
     <row r="115" spans="1:12" ht="16.5" hidden="1" thickBot="1">
-      <c r="A115" s="5">
+      <c r="A115" s="4">
         <v>13</v>
       </c>
-      <c r="B115" s="5">
+      <c r="B115" s="4">
         <v>73</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D115" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E115" s="5" t="s">
+      <c r="E115" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="F115" s="5" t="s">
+      <c r="F115" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="G115" s="5" t="s">
+      <c r="G115" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H115" s="5" t="s">
+      <c r="H115" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I115" s="10" t="s">
+      <c r="I115" s="9" t="s">
         <v>637</v>
       </c>
-      <c r="J115" s="11" t="str">
+      <c r="J115" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B115,",",E115," ",C115)</f>
         <v>D00DE8,,73,🇺🇸 Jared Granzow</v>
       </c>
-      <c r="K115" s="5"/>
-      <c r="L115" s="5"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
     </row>
     <row r="116" spans="1:12" ht="32.25" hidden="1" thickBot="1">
-      <c r="A116" s="5">
+      <c r="A116" s="4">
         <v>29</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C116" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D116" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E116" s="5" t="s">
+      <c r="E116" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="F116" s="5" t="s">
+      <c r="F116" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="G116" s="5" t="s">
+      <c r="G116" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H116" s="5" t="s">
+      <c r="H116" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I116" s="10" t="s">
+      <c r="I116" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="J116" s="11" t="str">
+      <c r="J116" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B116,",",E116," ",C116)</f>
         <v>DDEFD0,,AF,🇺🇸 Mike Sorenson</v>
       </c>
-      <c r="K116" s="7"/>
-      <c r="L116" s="7"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
     </row>
     <row r="117" spans="1:12" ht="15.75">
-      <c r="A117" s="9"/>
-      <c r="B117" s="9"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
-      <c r="I117" s="9"/>
-      <c r="J117" s="9"/>
-      <c r="K117" s="9"/>
-      <c r="L117" s="9"/>
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="8"/>
     </row>
     <row r="118" spans="1:12" ht="15.75">
-      <c r="A118" s="9"/>
-      <c r="B118" s="9"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="9"/>
-      <c r="I118" s="9"/>
-      <c r="J118" s="9"/>
-      <c r="K118" s="9"/>
-      <c r="L118" s="9"/>
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
+      <c r="L118" s="8"/>
     </row>
     <row r="119" spans="1:12" ht="15.75">
-      <c r="A119" s="9"/>
-      <c r="B119" s="9"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="9"/>
-      <c r="J119" s="9"/>
-      <c r="K119" s="9"/>
-      <c r="L119" s="9"/>
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="8"/>
+      <c r="L119" s="8"/>
     </row>
     <row r="120" spans="1:12" ht="15.75">
-      <c r="A120" s="9"/>
-      <c r="B120" s="9"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
-      <c r="I120" s="8" t="s">
+      <c r="A120" s="8"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="J120" s="9"/>
-      <c r="K120" s="9"/>
-      <c r="L120" s="9"/>
+      <c r="J120" s="8"/>
+      <c r="K120" s="8"/>
+      <c r="L120" s="8"/>
     </row>
     <row r="121" spans="1:12" ht="15.75">
-      <c r="A121" s="9"/>
-      <c r="B121" s="9"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="8" t="s">
+      <c r="A121" s="8"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="J121" s="9"/>
-      <c r="K121" s="9"/>
-      <c r="L121" s="9"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
+      <c r="L121" s="8"/>
     </row>
     <row r="122" spans="1:12" ht="15.75">
-      <c r="A122" s="9"/>
-      <c r="B122" s="9"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="9"/>
-      <c r="J122" s="9"/>
-      <c r="K122" s="9"/>
-      <c r="L122" s="9"/>
+      <c r="A122" s="8"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
+      <c r="K122" s="8"/>
+      <c r="L122" s="8"/>
     </row>
     <row r="123" spans="1:12" ht="15.75">
-      <c r="A123" s="9"/>
-      <c r="B123" s="9"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="8" t="s">
+      <c r="A123" s="8"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="J123" s="9" t="s">
+      <c r="J123" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="K123" s="9"/>
-      <c r="L123" s="9"/>
+      <c r="K123" s="8"/>
+      <c r="L123" s="8"/>
     </row>
     <row r="124" spans="1:12" ht="15.75">
-      <c r="A124" s="9"/>
-      <c r="B124" s="9"/>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9"/>
-      <c r="I124" s="9"/>
-      <c r="J124" s="9"/>
-      <c r="K124" s="9"/>
-      <c r="L124" s="9"/>
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
+      <c r="L124" s="8"/>
     </row>
     <row r="125" spans="1:12" ht="15.75">
-      <c r="A125" s="9"/>
-      <c r="B125" s="9"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="8" t="s">
+      <c r="A125" s="8"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="J125" s="9"/>
-      <c r="K125" s="9"/>
-      <c r="L125" s="9"/>
+      <c r="J125" s="8"/>
+      <c r="K125" s="8"/>
+      <c r="L125" s="8"/>
     </row>
     <row r="126" spans="1:12" ht="15.75">
-      <c r="A126" s="9"/>
-      <c r="B126" s="9"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9"/>
-      <c r="I126" s="9"/>
-      <c r="J126" s="9"/>
-      <c r="K126" s="9"/>
-      <c r="L126" s="9"/>
+      <c r="A126" s="8"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
+      <c r="K126" s="8"/>
+      <c r="L126" s="8"/>
     </row>
     <row r="127" spans="1:12" ht="15.75">
-      <c r="A127" s="9"/>
-      <c r="B127" s="9"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="8">
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="7">
         <v>617239</v>
       </c>
-      <c r="J127" s="9"/>
-      <c r="K127" s="9"/>
-      <c r="L127" s="9"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="8"/>
+      <c r="L127" s="8"/>
     </row>
     <row r="128" spans="1:12" ht="15.75">
-      <c r="A128" s="9"/>
-      <c r="B128" s="9"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9"/>
-      <c r="I128" s="8" t="s">
+      <c r="A128" s="8"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="J128" s="9"/>
-      <c r="K128" s="9"/>
-      <c r="L128" s="9"/>
+      <c r="J128" s="8"/>
+      <c r="K128" s="8"/>
+      <c r="L128" s="8"/>
     </row>
     <row r="129" spans="1:12" ht="15.75">
-      <c r="A129" s="9"/>
-      <c r="B129" s="9"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
-      <c r="I129" s="8" t="s">
+      <c r="A129" s="8"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="J129" s="9"/>
-      <c r="K129" s="9"/>
-      <c r="L129" s="9"/>
+      <c r="J129" s="8"/>
+      <c r="K129" s="8"/>
+      <c r="L129" s="8"/>
     </row>
     <row r="130" spans="1:12" ht="15.75">
-      <c r="A130" s="9"/>
-      <c r="B130" s="9"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
-      <c r="I130" s="8" t="s">
+      <c r="A130" s="8"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="J130" s="9"/>
-      <c r="K130" s="9"/>
-      <c r="L130" s="9"/>
+      <c r="J130" s="8"/>
+      <c r="K130" s="8"/>
+      <c r="L130" s="8"/>
     </row>
     <row r="131" spans="1:12" ht="15.75">
-      <c r="A131" s="9"/>
-      <c r="B131" s="9"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="8" t="s">
+      <c r="A131" s="8"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="J131" s="9"/>
-      <c r="K131" s="9"/>
-      <c r="L131" s="9"/>
+      <c r="J131" s="8"/>
+      <c r="K131" s="8"/>
+      <c r="L131" s="8"/>
     </row>
     <row r="132" spans="1:12" ht="15.75">
-      <c r="A132" s="9"/>
-      <c r="B132" s="9"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="8" t="s">
+      <c r="A132" s="8"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="J132" s="9"/>
-      <c r="K132" s="9"/>
-      <c r="L132" s="9"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="8"/>
+      <c r="L132" s="8"/>
     </row>
     <row r="133" spans="1:12" ht="15.75">
-      <c r="A133" s="9"/>
-      <c r="B133" s="9"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="9"/>
-      <c r="I133" s="8" t="s">
+      <c r="A133" s="8"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="J133" s="9"/>
-      <c r="K133" s="9"/>
-      <c r="L133" s="9"/>
+      <c r="J133" s="8"/>
+      <c r="K133" s="8"/>
+      <c r="L133" s="8"/>
     </row>
     <row r="134" spans="1:12" ht="15.75">
-      <c r="A134" s="9"/>
-      <c r="B134" s="9"/>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
-      <c r="I134" s="8" t="s">
+      <c r="A134" s="8"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="J134" s="9"/>
-      <c r="K134" s="9"/>
-      <c r="L134" s="9"/>
+      <c r="J134" s="8"/>
+      <c r="K134" s="8"/>
+      <c r="L134" s="8"/>
     </row>
     <row r="135" spans="1:12" ht="15.75">
-      <c r="A135" s="9"/>
-      <c r="B135" s="9"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="9"/>
-      <c r="I135" s="8" t="s">
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="J135" s="9"/>
-      <c r="K135" s="9"/>
-      <c r="L135" s="9"/>
+      <c r="J135" s="8"/>
+      <c r="K135" s="8"/>
+      <c r="L135" s="8"/>
     </row>
     <row r="136" spans="1:12" ht="15.75">
-      <c r="A136" s="9"/>
-      <c r="B136" s="9"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="9"/>
-      <c r="I136" s="8" t="s">
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="J136" s="9"/>
-      <c r="K136" s="9"/>
-      <c r="L136" s="9"/>
+      <c r="J136" s="8"/>
+      <c r="K136" s="8"/>
+      <c r="L136" s="8"/>
     </row>
     <row r="137" spans="1:12" ht="15.75">
-      <c r="A137" s="9"/>
-      <c r="B137" s="9"/>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="9"/>
-      <c r="I137" s="8" t="s">
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="J137" s="9"/>
-      <c r="K137" s="9"/>
-      <c r="L137" s="9"/>
+      <c r="J137" s="8"/>
+      <c r="K137" s="8"/>
+      <c r="L137" s="8"/>
     </row>
     <row r="138" spans="1:12" ht="15.75">
-      <c r="A138" s="9"/>
-      <c r="B138" s="9"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="9"/>
-      <c r="I138" s="8" t="s">
+      <c r="A138" s="8"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="J138" s="9"/>
-      <c r="K138" s="9"/>
-      <c r="L138" s="9"/>
+      <c r="J138" s="8"/>
+      <c r="K138" s="8"/>
+      <c r="L138" s="8"/>
     </row>
     <row r="139" spans="1:12" ht="15.75">
-      <c r="A139" s="9"/>
-      <c r="B139" s="9"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="9"/>
-      <c r="I139" s="8" t="s">
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="J139" s="9"/>
-      <c r="K139" s="9"/>
-      <c r="L139" s="9"/>
+      <c r="J139" s="8"/>
+      <c r="K139" s="8"/>
+      <c r="L139" s="8"/>
     </row>
     <row r="140" spans="1:12" ht="15.75">
-      <c r="A140" s="9"/>
-      <c r="B140" s="9"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="9"/>
-      <c r="I140" s="8" t="s">
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="J140" s="9"/>
-      <c r="K140" s="9"/>
-      <c r="L140" s="9"/>
+      <c r="J140" s="8"/>
+      <c r="K140" s="8"/>
+      <c r="L140" s="8"/>
     </row>
     <row r="141" spans="1:12" ht="15.75">
-      <c r="A141" s="9"/>
-      <c r="B141" s="9"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="9"/>
-      <c r="I141" s="8" t="s">
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="J141" s="9"/>
-      <c r="K141" s="9"/>
-      <c r="L141" s="9"/>
+      <c r="J141" s="8"/>
+      <c r="K141" s="8"/>
+      <c r="L141" s="8"/>
     </row>
     <row r="142" spans="1:12" ht="15.75">
-      <c r="A142" s="9"/>
-      <c r="B142" s="9"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="9"/>
-      <c r="I142" s="8" t="s">
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="J142" s="9"/>
-      <c r="K142" s="9"/>
-      <c r="L142" s="9"/>
+      <c r="J142" s="8"/>
+      <c r="K142" s="8"/>
+      <c r="L142" s="8"/>
     </row>
     <row r="143" spans="1:12" ht="15.75">
-      <c r="A143" s="9"/>
-      <c r="B143" s="9"/>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="9"/>
-      <c r="G143" s="9"/>
-      <c r="H143" s="9"/>
-      <c r="I143" s="8" t="s">
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="J143" s="9"/>
-      <c r="K143" s="9"/>
-      <c r="L143" s="9"/>
+      <c r="J143" s="8"/>
+      <c r="K143" s="8"/>
+      <c r="L143" s="8"/>
     </row>
     <row r="144" spans="1:12" ht="15.75">
-      <c r="A144" s="9"/>
-      <c r="B144" s="9"/>
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="9"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="9"/>
-      <c r="I144" s="8" t="s">
+      <c r="A144" s="8"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="J144" s="9"/>
-      <c r="K144" s="9"/>
-      <c r="L144" s="9"/>
+      <c r="J144" s="8"/>
+      <c r="K144" s="8"/>
+      <c r="L144" s="8"/>
     </row>
     <row r="145" spans="1:12" ht="15.75">
-      <c r="A145" s="9"/>
-      <c r="B145" s="9"/>
-      <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="9"/>
-      <c r="I145" s="8" t="s">
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
+      <c r="I145" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="J145" s="9"/>
-      <c r="K145" s="9"/>
-      <c r="L145" s="9"/>
+      <c r="J145" s="8"/>
+      <c r="K145" s="8"/>
+      <c r="L145" s="8"/>
     </row>
     <row r="146" spans="1:12" ht="15.75">
-      <c r="A146" s="9"/>
-      <c r="B146" s="9"/>
-      <c r="C146" s="9"/>
-      <c r="D146" s="9"/>
-      <c r="E146" s="9"/>
-      <c r="F146" s="9"/>
-      <c r="G146" s="9"/>
-      <c r="H146" s="9"/>
-      <c r="I146" s="8" t="s">
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="J146" s="9"/>
-      <c r="K146" s="9"/>
-      <c r="L146" s="9"/>
+      <c r="J146" s="8"/>
+      <c r="K146" s="8"/>
+      <c r="L146" s="8"/>
     </row>
     <row r="147" spans="1:12" ht="15.75">
-      <c r="A147" s="9"/>
-      <c r="B147" s="9"/>
-      <c r="C147" s="9"/>
-      <c r="D147" s="9"/>
-      <c r="E147" s="9"/>
-      <c r="F147" s="9"/>
-      <c r="G147" s="9"/>
-      <c r="H147" s="9"/>
-      <c r="I147" s="8" t="s">
+      <c r="A147" s="8"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="J147" s="9"/>
-      <c r="K147" s="9"/>
-      <c r="L147" s="9"/>
+      <c r="J147" s="8"/>
+      <c r="K147" s="8"/>
+      <c r="L147" s="8"/>
     </row>
     <row r="148" spans="1:12" ht="15.75">
-      <c r="A148" s="9"/>
-      <c r="B148" s="9"/>
-      <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="9"/>
-      <c r="F148" s="9"/>
-      <c r="G148" s="9"/>
-      <c r="H148" s="9"/>
-      <c r="I148" s="8" t="s">
+      <c r="A148" s="8"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="J148" s="9"/>
-      <c r="K148" s="9"/>
-      <c r="L148" s="9"/>
+      <c r="J148" s="8"/>
+      <c r="K148" s="8"/>
+      <c r="L148" s="8"/>
     </row>
     <row r="149" spans="1:12" ht="15.75">
-      <c r="A149" s="9"/>
-      <c r="B149" s="9"/>
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
-      <c r="E149" s="9"/>
-      <c r="F149" s="9"/>
-      <c r="G149" s="9"/>
-      <c r="H149" s="9"/>
-      <c r="I149" s="8" t="s">
+      <c r="A149" s="8"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="J149" s="9"/>
-      <c r="K149" s="9"/>
-      <c r="L149" s="9"/>
+      <c r="J149" s="8"/>
+      <c r="K149" s="8"/>
+      <c r="L149" s="8"/>
     </row>
     <row r="150" spans="1:12" ht="15.75">
-      <c r="A150" s="9"/>
-      <c r="B150" s="9"/>
-      <c r="C150" s="9"/>
-      <c r="D150" s="9"/>
-      <c r="E150" s="9"/>
-      <c r="F150" s="9"/>
-      <c r="G150" s="9"/>
-      <c r="H150" s="9"/>
-      <c r="I150" s="8" t="s">
+      <c r="A150" s="8"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+      <c r="H150" s="8"/>
+      <c r="I150" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="J150" s="9"/>
-      <c r="K150" s="9"/>
-      <c r="L150" s="9"/>
+      <c r="J150" s="8"/>
+      <c r="K150" s="8"/>
+      <c r="L150" s="8"/>
     </row>
     <row r="151" spans="1:12" ht="15.75">
-      <c r="A151" s="9"/>
-      <c r="B151" s="9"/>
-      <c r="C151" s="9"/>
-      <c r="D151" s="9"/>
-      <c r="E151" s="9"/>
-      <c r="F151" s="9"/>
-      <c r="G151" s="9"/>
-      <c r="H151" s="9"/>
-      <c r="I151" s="8" t="s">
+      <c r="A151" s="8"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="J151" s="9"/>
-      <c r="K151" s="9"/>
-      <c r="L151" s="9"/>
+      <c r="J151" s="8"/>
+      <c r="K151" s="8"/>
+      <c r="L151" s="8"/>
     </row>
     <row r="152" spans="1:12" ht="15.75">
-      <c r="A152" s="9"/>
-      <c r="B152" s="9"/>
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
-      <c r="E152" s="9"/>
-      <c r="F152" s="9"/>
-      <c r="G152" s="9"/>
-      <c r="H152" s="9"/>
-      <c r="I152" s="8" t="s">
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="J152" s="9"/>
-      <c r="K152" s="9"/>
-      <c r="L152" s="9"/>
+      <c r="J152" s="8"/>
+      <c r="K152" s="8"/>
+      <c r="L152" s="8"/>
     </row>
     <row r="153" spans="1:12" ht="15.75">
-      <c r="A153" s="9"/>
-      <c r="B153" s="9"/>
-      <c r="C153" s="9"/>
-      <c r="D153" s="9"/>
-      <c r="E153" s="9"/>
-      <c r="F153" s="9"/>
-      <c r="G153" s="9"/>
-      <c r="H153" s="9"/>
-      <c r="I153" s="8" t="s">
+      <c r="A153" s="8"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
+      <c r="H153" s="8"/>
+      <c r="I153" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="J153" s="9"/>
-      <c r="K153" s="9"/>
-      <c r="L153" s="9"/>
+      <c r="J153" s="8"/>
+      <c r="K153" s="8"/>
+      <c r="L153" s="8"/>
     </row>
     <row r="154" spans="1:12" ht="15.75">
-      <c r="A154" s="9"/>
-      <c r="B154" s="9"/>
-      <c r="C154" s="9"/>
-      <c r="D154" s="9"/>
-      <c r="E154" s="9"/>
-      <c r="F154" s="9"/>
-      <c r="G154" s="9"/>
-      <c r="H154" s="9"/>
-      <c r="I154" s="8" t="s">
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
+      <c r="H154" s="8"/>
+      <c r="I154" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="J154" s="9"/>
-      <c r="K154" s="9"/>
-      <c r="L154" s="9"/>
+      <c r="J154" s="8"/>
+      <c r="K154" s="8"/>
+      <c r="L154" s="8"/>
     </row>
     <row r="155" spans="1:12" ht="15.75">
-      <c r="A155" s="9"/>
-      <c r="B155" s="9"/>
-      <c r="C155" s="9"/>
-      <c r="D155" s="9"/>
-      <c r="E155" s="9"/>
-      <c r="F155" s="9"/>
-      <c r="G155" s="9"/>
-      <c r="H155" s="9"/>
-      <c r="I155" s="8" t="s">
+      <c r="A155" s="8"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+      <c r="H155" s="8"/>
+      <c r="I155" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="J155" s="9"/>
-      <c r="K155" s="9"/>
-      <c r="L155" s="9"/>
+      <c r="J155" s="8"/>
+      <c r="K155" s="8"/>
+      <c r="L155" s="8"/>
     </row>
     <row r="156" spans="1:12" ht="15.75">
-      <c r="A156" s="9"/>
-      <c r="B156" s="9"/>
-      <c r="C156" s="9"/>
-      <c r="D156" s="9"/>
-      <c r="E156" s="9"/>
-      <c r="F156" s="9"/>
-      <c r="G156" s="9"/>
-      <c r="H156" s="9"/>
-      <c r="I156" s="8" t="s">
+      <c r="A156" s="8"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
+      <c r="H156" s="8"/>
+      <c r="I156" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="J156" s="9"/>
-      <c r="K156" s="9"/>
-      <c r="L156" s="9"/>
+      <c r="J156" s="8"/>
+      <c r="K156" s="8"/>
+      <c r="L156" s="8"/>
     </row>
     <row r="157" spans="1:12" ht="15.75">
-      <c r="A157" s="9"/>
-      <c r="B157" s="9"/>
-      <c r="C157" s="9"/>
-      <c r="D157" s="9"/>
-      <c r="E157" s="9"/>
-      <c r="F157" s="9"/>
-      <c r="G157" s="9"/>
-      <c r="H157" s="9"/>
-      <c r="I157" s="8" t="s">
+      <c r="A157" s="8"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="J157" s="9"/>
-      <c r="K157" s="9"/>
-      <c r="L157" s="9"/>
+      <c r="J157" s="8"/>
+      <c r="K157" s="8"/>
+      <c r="L157" s="8"/>
     </row>
     <row r="158" spans="1:12" ht="15.75">
-      <c r="A158" s="9"/>
-      <c r="B158" s="9"/>
-      <c r="C158" s="9"/>
-      <c r="D158" s="9"/>
-      <c r="E158" s="9"/>
-      <c r="F158" s="9"/>
-      <c r="G158" s="9"/>
-      <c r="H158" s="9"/>
-      <c r="I158" s="8" t="s">
+      <c r="A158" s="8"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
+      <c r="H158" s="8"/>
+      <c r="I158" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="J158" s="9"/>
-      <c r="K158" s="9"/>
-      <c r="L158" s="9"/>
+      <c r="J158" s="8"/>
+      <c r="K158" s="8"/>
+      <c r="L158" s="8"/>
     </row>
     <row r="159" spans="1:12" ht="15.75">
-      <c r="A159" s="9"/>
-      <c r="B159" s="9"/>
-      <c r="C159" s="9"/>
-      <c r="D159" s="9"/>
-      <c r="E159" s="9"/>
-      <c r="F159" s="9"/>
-      <c r="G159" s="9"/>
-      <c r="H159" s="9"/>
-      <c r="I159" s="8">
+      <c r="A159" s="8"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
+      <c r="H159" s="8"/>
+      <c r="I159" s="7">
         <v>524435</v>
       </c>
-      <c r="J159" s="9"/>
-      <c r="K159" s="9"/>
-      <c r="L159" s="9"/>
+      <c r="J159" s="8"/>
+      <c r="K159" s="8"/>
+      <c r="L159" s="8"/>
     </row>
     <row r="160" spans="1:12" ht="15.75">
-      <c r="A160" s="9"/>
-      <c r="B160" s="9"/>
-      <c r="C160" s="9"/>
-      <c r="D160" s="9"/>
-      <c r="E160" s="9"/>
-      <c r="F160" s="9"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="9"/>
-      <c r="I160" s="8" t="s">
+      <c r="A160" s="8"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+      <c r="H160" s="8"/>
+      <c r="I160" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="J160" s="9"/>
-      <c r="K160" s="9"/>
-      <c r="L160" s="9"/>
+      <c r="J160" s="8"/>
+      <c r="K160" s="8"/>
+      <c r="L160" s="8"/>
     </row>
     <row r="161" spans="1:12" ht="15.75">
-      <c r="A161" s="9"/>
-      <c r="B161" s="9"/>
-      <c r="C161" s="9"/>
-      <c r="D161" s="9"/>
-      <c r="E161" s="9"/>
-      <c r="F161" s="9"/>
-      <c r="G161" s="9"/>
-      <c r="H161" s="9"/>
-      <c r="I161" s="8" t="s">
+      <c r="A161" s="8"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+      <c r="H161" s="8"/>
+      <c r="I161" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="J161" s="9"/>
-      <c r="K161" s="9"/>
-      <c r="L161" s="9"/>
+      <c r="J161" s="8"/>
+      <c r="K161" s="8"/>
+      <c r="L161" s="8"/>
     </row>
     <row r="162" spans="1:12" ht="15.75">
-      <c r="A162" s="9"/>
-      <c r="B162" s="9"/>
-      <c r="C162" s="9"/>
-      <c r="D162" s="9"/>
-      <c r="E162" s="9"/>
-      <c r="F162" s="9"/>
-      <c r="G162" s="9"/>
-      <c r="H162" s="9"/>
-      <c r="I162" s="8" t="s">
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="8"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
+      <c r="H162" s="8"/>
+      <c r="I162" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="J162" s="9" t="s">
+      <c r="J162" s="8" t="s">
         <v>619</v>
       </c>
-      <c r="K162" s="9"/>
-      <c r="L162" s="9"/>
+      <c r="K162" s="8"/>
+      <c r="L162" s="8"/>
     </row>
     <row r="163" spans="1:12" ht="15.75">
-      <c r="A163" s="9"/>
-      <c r="B163" s="9"/>
-      <c r="C163" s="9"/>
-      <c r="D163" s="9"/>
-      <c r="E163" s="9"/>
-      <c r="F163" s="9"/>
-      <c r="G163" s="9"/>
-      <c r="H163" s="9"/>
-      <c r="I163" s="8" t="s">
+      <c r="A163" s="8"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="J163" s="9" t="s">
+      <c r="J163" s="8" t="s">
         <v>626</v>
       </c>
-      <c r="K163" s="9"/>
-      <c r="L163" s="9"/>
+      <c r="K163" s="8"/>
+      <c r="L163" s="8"/>
     </row>
     <row r="164" spans="1:12" ht="15.75">
-      <c r="A164" s="9"/>
-      <c r="B164" s="9"/>
-      <c r="C164" s="9"/>
-      <c r="D164" s="9"/>
-      <c r="E164" s="9"/>
-      <c r="F164" s="9"/>
-      <c r="G164" s="9"/>
-      <c r="H164" s="9"/>
-      <c r="I164" s="8" t="s">
+      <c r="A164" s="8"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
+      <c r="H164" s="8"/>
+      <c r="I164" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="J164" s="8" t="s">
+      <c r="J164" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="K164" s="9"/>
-      <c r="L164" s="9"/>
+      <c r="K164" s="8"/>
+      <c r="L164" s="8"/>
     </row>
     <row r="165" spans="1:12" ht="15.75">
-      <c r="A165" s="9"/>
-      <c r="B165" s="9"/>
-      <c r="C165" s="9"/>
-      <c r="D165" s="9"/>
-      <c r="E165" s="9"/>
-      <c r="F165" s="9"/>
-      <c r="G165" s="9"/>
-      <c r="H165" s="9"/>
-      <c r="I165" s="8" t="s">
+      <c r="A165" s="8"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
+      <c r="H165" s="8"/>
+      <c r="I165" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="J165" s="9" t="s">
+      <c r="J165" s="8" t="s">
         <v>634</v>
       </c>
-      <c r="K165" s="9"/>
-      <c r="L165" s="9"/>
+      <c r="K165" s="8"/>
+      <c r="L165" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I69">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -8320,7 +8323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91D3A2B-B8F5-4A4C-A0B8-D793DC2E0E9A}">
   <dimension ref="A1:U151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -8725,7 +8728,7 @@
       <c r="H18" t="s">
         <v>459</v>
       </c>
-      <c r="L18" s="4"/>
+      <c r="L18" s="3"/>
       <c r="U18" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -10171,7 +10174,7 @@
       <c r="G84" t="s">
         <v>766</v>
       </c>
-      <c r="H84" s="4" t="s">
+      <c r="H84" s="3" t="s">
         <v>741</v>
       </c>
     </row>
@@ -10576,233 +10579,233 @@
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75">
-      <c r="H106" s="8" t="s">
+      <c r="H106" s="7" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75">
-      <c r="H107" s="8" t="s">
+      <c r="H107" s="7" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75">
-      <c r="H108" s="9"/>
+      <c r="H108" s="8"/>
     </row>
     <row r="109" spans="1:8" ht="15.75">
-      <c r="H109" s="8" t="s">
+      <c r="H109" s="7" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75">
-      <c r="H110" s="9"/>
+      <c r="H110" s="8"/>
     </row>
     <row r="111" spans="1:8" ht="15.75">
-      <c r="H111" s="8" t="s">
+      <c r="H111" s="7" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.75">
-      <c r="H112" s="9"/>
+      <c r="H112" s="8"/>
     </row>
     <row r="113" spans="8:8" ht="15.75">
-      <c r="H113" s="8">
+      <c r="H113" s="7">
         <v>617239</v>
       </c>
     </row>
     <row r="114" spans="8:8" ht="15.75">
-      <c r="H114" s="8" t="s">
+      <c r="H114" s="7" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="115" spans="8:8" ht="15.75">
-      <c r="H115" s="8" t="s">
+      <c r="H115" s="7" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="116" spans="8:8" ht="15.75">
-      <c r="H116" s="8" t="s">
+      <c r="H116" s="7" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="117" spans="8:8" ht="15.75">
-      <c r="H117" s="8" t="s">
+      <c r="H117" s="7" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="118" spans="8:8" ht="15.75">
-      <c r="H118" s="8" t="s">
+      <c r="H118" s="7" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="119" spans="8:8" ht="15.75">
-      <c r="H119" s="8" t="s">
+      <c r="H119" s="7" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="120" spans="8:8" ht="15.75">
-      <c r="H120" s="8" t="s">
+      <c r="H120" s="7" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="121" spans="8:8" ht="15.75">
-      <c r="H121" s="8" t="s">
+      <c r="H121" s="7" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="122" spans="8:8" ht="15.75">
-      <c r="H122" s="8" t="s">
+      <c r="H122" s="7" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="123" spans="8:8" ht="15.75">
-      <c r="H123" s="8" t="s">
+      <c r="H123" s="7" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="124" spans="8:8" ht="15.75">
-      <c r="H124" s="8" t="s">
+      <c r="H124" s="7" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="125" spans="8:8" ht="15.75">
-      <c r="H125" s="8" t="s">
+      <c r="H125" s="7" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="126" spans="8:8" ht="15.75">
-      <c r="H126" s="8" t="s">
+      <c r="H126" s="7" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="127" spans="8:8" ht="15.75">
-      <c r="H127" s="8" t="s">
+      <c r="H127" s="7" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="128" spans="8:8" ht="15.75">
-      <c r="H128" s="8" t="s">
+      <c r="H128" s="7" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="129" spans="8:8" ht="15.75">
-      <c r="H129" s="8" t="s">
+      <c r="H129" s="7" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="130" spans="8:8" ht="15.75">
-      <c r="H130" s="8" t="s">
+      <c r="H130" s="7" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="131" spans="8:8" ht="15.75">
-      <c r="H131" s="8" t="s">
+      <c r="H131" s="7" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="132" spans="8:8" ht="15.75">
-      <c r="H132" s="8" t="s">
+      <c r="H132" s="7" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="133" spans="8:8" ht="15.75">
-      <c r="H133" s="8" t="s">
+      <c r="H133" s="7" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="134" spans="8:8" ht="15.75">
-      <c r="H134" s="8" t="s">
+      <c r="H134" s="7" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="135" spans="8:8" ht="15.75">
-      <c r="H135" s="8" t="s">
+      <c r="H135" s="7" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="136" spans="8:8" ht="15.75">
-      <c r="H136" s="8" t="s">
+      <c r="H136" s="7" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="137" spans="8:8" ht="15.75">
-      <c r="H137" s="8" t="s">
+      <c r="H137" s="7" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="138" spans="8:8" ht="15.75">
-      <c r="H138" s="8" t="s">
+      <c r="H138" s="7" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="139" spans="8:8" ht="15.75">
-      <c r="H139" s="8" t="s">
+      <c r="H139" s="7" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="140" spans="8:8" ht="15.75">
-      <c r="H140" s="8" t="s">
+      <c r="H140" s="7" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="141" spans="8:8" ht="15.75">
-      <c r="H141" s="8" t="s">
+      <c r="H141" s="7" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="142" spans="8:8" ht="15.75">
-      <c r="H142" s="8" t="s">
+      <c r="H142" s="7" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="143" spans="8:8" ht="15.75">
-      <c r="H143" s="8" t="s">
+      <c r="H143" s="7" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="144" spans="8:8" ht="15.75">
-      <c r="H144" s="8" t="s">
+      <c r="H144" s="7" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="145" spans="8:8" ht="15.75">
-      <c r="H145" s="8">
+      <c r="H145" s="7">
         <v>524435</v>
       </c>
     </row>
     <row r="146" spans="8:8" ht="15.75">
-      <c r="H146" s="8" t="s">
+      <c r="H146" s="7" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="147" spans="8:8" ht="15.75">
-      <c r="H147" s="8" t="s">
+      <c r="H147" s="7" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="148" spans="8:8" ht="15.75">
-      <c r="H148" s="8" t="s">
+      <c r="H148" s="7" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="149" spans="8:8" ht="15.75">
-      <c r="H149" s="8" t="s">
+      <c r="H149" s="7" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="150" spans="8:8" ht="15.75">
-      <c r="H150" s="8" t="s">
+      <c r="H150" s="7" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="151" spans="8:8" ht="15.75">
-      <c r="H151" s="8" t="s">
+      <c r="H151" s="7" t="s">
         <v>633</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -10839,392 +10842,392 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="str">
+      <c r="A2" t="str">
         <f>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</f>
         <v>RomaniaROM🇷🇴</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>504</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="str">
+      <c r="A3" t="str">
         <f>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</f>
         <v>SloveniaSLO🇸🇮</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>505</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" t="str">
         <f>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</f>
         <v>DenmarkDEN🇩🇰</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>506</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="str">
+      <c r="A5" t="str">
         <f>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</f>
         <v>ItalyITA🇮🇹</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>507</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="str">
+      <c r="A6" t="str">
         <f>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</f>
         <v>United StatesUSA🇺🇸</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>508</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="str">
+      <c r="A7" t="str">
         <f>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</f>
         <v>FranceFRA🇫🇷</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>509</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="str">
+      <c r="A8" t="str">
         <f>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</f>
         <v>BelgiumBEL🇧🇪</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>510</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="str">
+      <c r="A9" t="str">
         <f>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</f>
         <v>Great BritainGBR🇬🇧</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>511</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="str">
+      <c r="A10" t="str">
         <f>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</f>
         <v>PolandPOL🇵🇱</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>512</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="str">
+      <c r="A11" t="str">
         <f>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</f>
         <v>CroatiaCRO🇭🇷</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>513</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="str">
+      <c r="A12" t="str">
         <f>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</f>
         <v>SwizerlandSUI🇨🇭</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>514</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="str">
+      <c r="A13" t="str">
         <f>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</f>
         <v>ArgentiniaARG🇦🇷</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>515</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="str">
+      <c r="A14" t="str">
         <f>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</f>
         <v>LithuaniaLTU🇱🇹</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>516</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="str">
+      <c r="A15" t="str">
         <f>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</f>
         <v>HungaryHUN🇭🇺</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>517</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="str">
+      <c r="A16" t="str">
         <f>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</f>
         <v>Czech RepublicCZE🇨🇿</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>518</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1" t="str">
+      <c r="A17" t="str">
         <f>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</f>
         <v>GermanyGER🇩🇪</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>519</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1" t="str">
+      <c r="A18" t="str">
         <f>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</f>
         <v>AustraliaAUS🇦🇺</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>383</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1" t="str">
+      <c r="A19" t="str">
         <f>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</f>
         <v>SpainESP🇪🇸</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>520</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1" t="str">
+      <c r="A20" t="str">
         <f>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</f>
         <v>SlovakiaSVK🇸🇰</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>521</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1" t="str">
+      <c r="A21" t="str">
         <f>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</f>
         <v>NetherlandsNED🇳🇱</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>522</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1" t="str">
+      <c r="A22" t="str">
         <f>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</f>
         <v>New ZealandNZL🇳🇿</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>523</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="1" t="str">
+      <c r="A23" t="str">
         <f>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</f>
         <v>FinnlandFIN🇫🇮</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>524</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="1" t="str">
+      <c r="A24" t="str">
         <f>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</f>
         <v>AustriaAUT🇦🇹</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>525</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="1" t="str">
+      <c r="A25" t="str">
         <f>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</f>
         <v>IsraelISR🇮🇱</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>526</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="1" t="str">
+      <c r="A26" t="str">
         <f>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</f>
         <v>SwedenSWE🇸🇪</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>527</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="1" t="str">
+      <c r="A27" t="str">
         <f>_xlfn.CONCAT(Table2[[#This Row],[Country2]:[Flag]])</f>
         <v>BrasilBRA🇧🇷</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>528</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>424</v>
       </c>
     </row>

--- a/data/gliders/Database.xlsx
+++ b/data/gliders/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge69dox\Schlautmann\00_private\01_Flying\WGC_Tabor\Quellen\tracking\data\gliders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B046B1D-4A7E-454F-A9B6-FEF97B895DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4296C5A7-4029-4EE6-BCCB-5A7B2ACF6189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AF3C144-75A6-4A65-8D42-AC6B359BC94F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="782">
   <si>
     <t>ZJ</t>
   </si>
@@ -2381,6 +2381,9 @@
   </si>
   <si>
     <t>D00CF4 (Database)</t>
+  </si>
+  <si>
+    <t>3EEB98</t>
   </si>
 </sst>
 </file>
@@ -3102,11 +3105,6 @@
         <filter val="GER"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Club Class"/>
-      </filters>
-    </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L116">
     <sortCondition ref="E1:E116"/>
@@ -3483,7 +3481,7 @@
   <dimension ref="A1:L165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I118" sqref="I118"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4719,7 +4717,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="16.5" thickBot="1">
+    <row r="36" spans="1:12" ht="18.75" thickBot="1">
       <c r="A36" s="4">
         <v>39</v>
       </c>
@@ -4744,17 +4742,17 @@
       <c r="H36" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I36" s="10" t="s">
-        <v>633</v>
+      <c r="I36" s="2" t="s">
+        <v>781</v>
       </c>
       <c r="J36" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B36,",",E36," ",C36)</f>
-        <v>DF14A3,,🇩🇪SN,🇩🇪 Uwe Wahlig</v>
+        <v>3EEB98,,🇩🇪SN,🇩🇪 Uwe Wahlig</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="32.25" hidden="1" thickBot="1">
+    <row r="37" spans="1:12" ht="32.25" thickBot="1">
       <c r="A37" s="4">
         <v>18</v>
       </c>
@@ -4789,7 +4787,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" ht="32.25" hidden="1" thickBot="1">
+    <row r="38" spans="1:12" ht="32.25" thickBot="1">
       <c r="A38" s="4">
         <v>19</v>
       </c>
@@ -4824,7 +4822,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" ht="32.25" hidden="1" thickBot="1">
+    <row r="39" spans="1:12" ht="32.25" thickBot="1">
       <c r="A39" s="4">
         <v>21</v>
       </c>
@@ -4859,7 +4857,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" ht="16.5" hidden="1" thickBot="1">
+    <row r="40" spans="1:12" ht="16.5" thickBot="1">
       <c r="A40" s="4">
         <v>11</v>
       </c>
@@ -4884,15 +4882,17 @@
       <c r="H40" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I40" s="10"/>
+      <c r="I40" s="10" t="s">
+        <v>633</v>
+      </c>
       <c r="J40" s="10" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[FlarmID]],",,",B40,",",E40," ",C40)</f>
-        <v>,,🇩🇪SG,🇩🇪 Steffen Göttler</v>
+        <v>DF14A3,,🇩🇪SG,🇩🇪 Steffen Göttler</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" ht="16.5" hidden="1" thickBot="1">
+    <row r="41" spans="1:12" ht="16.5" thickBot="1">
       <c r="A41" s="4">
         <v>25</v>
       </c>
